--- a/training-log.xlsx
+++ b/training-log.xlsx
@@ -1077,7 +1077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="0" shapeId="0">
+    <comment ref="D16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="177">
   <si>
     <t>training set #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1589,57 +1589,238 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>unet-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inception-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inception:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unet:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7c6f6da4-d5d8-4f9b-b65e-1cd117b81f53</t>
+  </si>
+  <si>
+    <t>0216 현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">model 약간 수정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래는 도커제출 가능 파일들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr=0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data augmentation 수정!! Rotation 제대로 안되고 있었음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96b41ba2-7280-4df0-b02a-94b4eaeef336</t>
+  </si>
+  <si>
+    <t>1a229c11-8de1-4e9c-a5ab-72391d403d2d</t>
+  </si>
+  <si>
+    <t>unet-8-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unet:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unet-pretained 'u_2.h5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e09004e-082a-463a-aee5-0aabbf891eee</t>
+  </si>
+  <si>
+    <t>잘 나오길 희망..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inception-pretrained 'i_2.h5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infercheck:unet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infercheck:inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>unet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unet-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inception</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inception-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inception:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unet:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7c6f6da4-d5d8-4f9b-b65e-1cd117b81f53</t>
-  </si>
-  <si>
-    <t>73d82cfc-0376-485d-9d8e-7a590d8668e9</t>
-  </si>
-  <si>
-    <t>0216 현재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">model 약간 수정 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아래는 도커제출 가능 파일들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lr=0.001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>folder</t>
+    <t>inception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3cfad221-86be-408f-b5b4-fa5183fe0e7b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e09004e-082a-463a-aee5-0aabbf891eee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d5677930-fcfb-4313-bc58-31128fafb2ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d30061f-1ee9-4adb-8ab4-442836313fb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ba83ab72-ae40-40c2-8797-c5e33d55ff7e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74280786-f325-40d0-8930-35c8690ddb1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unet-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래는 pretrained model + 각자 맞는 dataaug까지 추가한 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unet-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inception-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inception-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 아래의 공통적인 문제는 거의 대부분의 확률이 같게 나온다는 것이다. 그럼 색깔 lotation이 한정적이라서 나올 수 있는 결과일까? 그 색에는 암일 확률이 많다는 것일까.. 그렇게 우연히 학습했을 가능성이 크겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색조정은 안하고 data aug한것도 실험해봐야겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inference에 train시 했던 data - aug 조건을 그대로 넣어주고 실험돌리고 있따.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정 안되면 inference에서 5번째 max 값을 뽑게 해도 괜찮을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못됐다 이거는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형편없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 rotation 한게 클 수도 있다. 그냥 이거 돌린거 한 번 넣어보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data augmentation "rotation"다시 넣고 시작"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ inference 7272번째 값 뽑기로 결정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unet-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data aug -&gt; rotation range 다시 넣고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unet-3 pretrained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6f25ed7c-83ad-4860-8ddf-e5b825a59bea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unet:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로 다시구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker-unet-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1076cf2-60f6-42ad-957c-78d33ae45c9a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker-simple-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4143e64-2547-4412-adea-ac368b6742ae</t>
+  </si>
+  <si>
+    <t>unet-8-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1651,7 +1832,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;-&quot;m&quot;-&quot;d\ h:mm;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1718,21 +1899,115 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1741,7 +2016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,9 +2041,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1784,8 +2056,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2067,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2384,7 +2710,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B6">
@@ -2447,7 +2773,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="25"/>
       <c r="B7">
         <v>5</v>
       </c>
@@ -2503,7 +2829,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B8">
@@ -2563,7 +2889,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="25"/>
       <c r="B9">
         <v>5</v>
       </c>
@@ -2773,71 +3099,90 @@
         <v>43508.583333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14"/>
-      <c r="C14" t="s">
+      <c r="C14" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="30">
         <v>0.92700000000000005</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="31">
         <v>17</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="31">
         <v>2000</v>
       </c>
-      <c r="K14">
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31">
         <v>5.95</v>
       </c>
-      <c r="M14">
+      <c r="L14" s="31"/>
+      <c r="M14" s="31">
         <v>32</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="31">
         <v>5</v>
       </c>
-      <c r="Q14">
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31">
         <v>5000</v>
+      </c>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="Z14"/>
       <c r="AA14" s="7"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B15"/>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15">
-        <v>38</v>
-      </c>
-      <c r="G15">
-        <v>2000</v>
-      </c>
-      <c r="N15">
+    <row r="15" spans="1:28" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31">
+        <v>17</v>
+      </c>
+      <c r="G15" s="31">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31">
+        <v>128</v>
+      </c>
+      <c r="N15" s="31">
         <v>10</v>
       </c>
-      <c r="Q15">
-        <v>5000</v>
-      </c>
-      <c r="Z15"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31" t="s">
+        <v>174</v>
+      </c>
       <c r="AA15" s="7"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16">
         <v>38</v>
@@ -2854,68 +3199,120 @@
       <c r="Z16"/>
       <c r="AA16" s="7"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17"/>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <v>2000</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>5000</v>
+      </c>
       <c r="Z17"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="AA17" s="7"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18"/>
-      <c r="C18" s="8" t="s">
+      <c r="Z18"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="30">
         <v>0.93400000000000005</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="31">
         <v>17</v>
       </c>
-      <c r="G18">
+      <c r="G19" s="31">
         <v>2000</v>
       </c>
-      <c r="M18">
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31">
         <v>128</v>
       </c>
-      <c r="N18">
+      <c r="N19" s="31">
         <v>5</v>
       </c>
-      <c r="Q18">
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31">
         <v>5000</v>
       </c>
-      <c r="T18">
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31">
         <v>7.7</v>
       </c>
-      <c r="Z18"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C19" s="6" t="s">
+      <c r="U19" t="s">
+        <v>168</v>
+      </c>
+      <c r="V19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z19"/>
+    </row>
+    <row r="20" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31">
+        <v>17</v>
+      </c>
+      <c r="G20" s="31">
+        <v>10000</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31">
+        <v>128</v>
+      </c>
+      <c r="N20" s="31">
+        <v>10</v>
+      </c>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="T20" s="31"/>
+      <c r="U20" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>88</v>
-      </c>
-      <c r="F19">
-        <v>17</v>
-      </c>
-      <c r="G19">
-        <v>2000</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="M19">
-        <v>128</v>
-      </c>
-      <c r="N19">
-        <v>5</v>
-      </c>
-      <c r="Q19">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E21" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="F21">
         <v>17</v>
@@ -2923,6 +3320,7 @@
       <c r="G21">
         <v>2000</v>
       </c>
+      <c r="K21" s="1"/>
       <c r="M21">
         <v>128</v>
       </c>
@@ -2933,148 +3331,86 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="9" t="s">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="E23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>2000</v>
+      </c>
+      <c r="M23">
+        <v>128</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B24" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>17</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <v>2000</v>
-      </c>
-      <c r="M22">
-        <v>128</v>
-      </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="9">
-        <v>8</v>
-      </c>
-      <c r="G24" s="9">
-        <v>10000</v>
-      </c>
-      <c r="I24" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" t="s">
-        <v>94</v>
       </c>
       <c r="M24">
         <v>128</v>
       </c>
       <c r="N24">
-        <v>10</v>
-      </c>
-      <c r="O24">
-        <v>256</v>
-      </c>
-      <c r="P24">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="Q24">
         <v>5000</v>
       </c>
-      <c r="S24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="E25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25">
-        <v>17</v>
-      </c>
-      <c r="G25">
-        <v>2000</v>
-      </c>
-      <c r="I25" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="9" t="s">
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="8">
+        <v>8</v>
+      </c>
+      <c r="G26" s="8">
+        <v>10000</v>
+      </c>
+      <c r="I26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" t="s">
         <v>94</v>
-      </c>
-      <c r="M25">
-        <v>128</v>
-      </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-      <c r="O25">
-        <v>256</v>
-      </c>
-      <c r="P25">
-        <v>40</v>
-      </c>
-      <c r="Q25">
-        <v>5000</v>
-      </c>
-      <c r="S25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26">
-        <v>17</v>
-      </c>
-      <c r="G26">
-        <v>2000</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" t="s">
-        <v>99</v>
       </c>
       <c r="M26">
         <v>128</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O26">
         <v>256</v>
@@ -3086,30 +3422,30 @@
         <v>5000</v>
       </c>
       <c r="S26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C27" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.72899999999999998</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F27">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G27">
         <v>2000</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" t="s">
-        <v>101</v>
+      <c r="I27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="M27">
         <v>128</v>
@@ -3127,32 +3463,71 @@
         <v>5000</v>
       </c>
       <c r="S27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B28" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" t="s">
+        <v>99</v>
+      </c>
+      <c r="M28">
+        <v>128</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>256</v>
+      </c>
+      <c r="P28">
+        <v>40</v>
+      </c>
+      <c r="Q28">
+        <v>5000</v>
+      </c>
+      <c r="S28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F29">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>2000</v>
       </c>
-      <c r="I29" t="s">
-        <v>129</v>
+      <c r="I29" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="M29">
         <v>128</v>
@@ -3170,59 +3545,23 @@
         <v>5000</v>
       </c>
       <c r="S29" t="s">
-        <v>115</v>
-      </c>
-      <c r="T29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C30" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30">
-        <v>17</v>
-      </c>
-      <c r="G30" s="10">
-        <v>2000</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="M30" s="10">
-        <v>128</v>
-      </c>
-      <c r="N30" s="10">
-        <v>5</v>
-      </c>
-      <c r="O30" s="10">
-        <v>256</v>
-      </c>
-      <c r="P30" s="10">
-        <v>40</v>
-      </c>
-      <c r="Q30" s="10">
-        <v>5000</v>
-      </c>
-      <c r="S30" t="s">
-        <v>118</v>
-      </c>
-      <c r="T30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C31" s="10" t="s">
-        <v>124</v>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.82</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F31">
         <v>17</v>
@@ -3230,135 +3569,604 @@
       <c r="G31">
         <v>2000</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" t="s">
+        <v>114</v>
+      </c>
+      <c r="M31">
+        <v>128</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>256</v>
+      </c>
+      <c r="P31">
+        <v>40</v>
+      </c>
+      <c r="Q31">
+        <v>5000</v>
+      </c>
+      <c r="S31" t="s">
+        <v>115</v>
+      </c>
+      <c r="T31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32">
+        <v>17</v>
+      </c>
+      <c r="G32" s="9">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32" s="9">
+        <v>128</v>
+      </c>
+      <c r="N32" s="9">
+        <v>5</v>
+      </c>
+      <c r="O32" s="9">
+        <v>256</v>
+      </c>
+      <c r="P32" s="9">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>5000</v>
+      </c>
+      <c r="S32" t="s">
+        <v>117</v>
+      </c>
+      <c r="T32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C33" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10">
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9">
         <v>128</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N33" s="9">
         <v>5</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O33" s="9">
         <v>256</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P33" s="9">
         <v>40</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q33" s="9">
         <v>5000</v>
       </c>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10" t="s">
+      <c r="R33" s="9"/>
+      <c r="S33" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="T33" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="T31" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C42" s="2" t="s">
+    </row>
+    <row r="35" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C36" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="16"/>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C37" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0.52</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="U37" s="19"/>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C38" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="18">
+        <v>17</v>
+      </c>
+      <c r="G38" s="18">
+        <v>2000</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18">
+        <v>128</v>
+      </c>
+      <c r="N38" s="18">
+        <v>5</v>
+      </c>
+      <c r="O38" s="18">
+        <v>256</v>
+      </c>
+      <c r="P38" s="18">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>5000</v>
+      </c>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="T38" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="U38" s="19"/>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C39" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C40" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="18">
+        <v>0.70551378446115198</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="U40" s="19"/>
+    </row>
+    <row r="41" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="22">
+        <v>17</v>
+      </c>
+      <c r="G41" s="22">
+        <v>2000</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22">
+        <v>128</v>
+      </c>
+      <c r="N41" s="22">
+        <v>5</v>
+      </c>
+      <c r="O41" s="22">
+        <v>256</v>
+      </c>
+      <c r="P41" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>5000</v>
+      </c>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="T41" s="22"/>
+      <c r="U41" s="23"/>
+    </row>
+    <row r="42" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C43" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="16"/>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C44" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="19"/>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C45" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="19"/>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C46" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="19"/>
+    </row>
+    <row r="47" spans="3:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="23"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="M49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" t="s">
+        <v>165</v>
+      </c>
+      <c r="K50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C51" s="13"/>
+      <c r="E51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C55" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E55" t="s">
         <v>51</v>
       </c>
-      <c r="H42">
+      <c r="H55">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
         <v>8</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
         <v>9</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E57" t="s">
         <v>47</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G57" t="s">
         <v>46</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
         <v>10</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E58" t="s">
         <v>48</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
         <v>11</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E59" t="s">
         <v>49</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G59" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
         <v>0</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F48" t="s">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F49" s="1" t="s">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F62" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F50" s="1" t="s">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F63" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F51" t="s">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E53" t="s">
+    <row r="66" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
         <v>67</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E54" t="s">
+    <row r="67" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F56" t="s">
+    <row r="69" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3366,7 +4174,7 @@
   <mergeCells count="3">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
